--- a/biology/Mycologie/Fulgensia/Fulgensia.xlsx
+++ b/biology/Mycologie/Fulgensia/Fulgensia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fulgensia est un genre de champignons lichénisés de la famille des Teloschistaceae, cosmopolite et ubiquiste, plus particulièrement dans la région méditerranéenne[1]. Leur thalle crustacé et hétéromère est lobé au pourtour. Il produit des ascospores non polariloculaires[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fulgensia est un genre de champignons lichénisés de la famille des Teloschistaceae, cosmopolite et ubiquiste, plus particulièrement dans la région méditerranéenne. Leur thalle crustacé et hétéromère est lobé au pourtour. Il produit des ascospores non polariloculaires.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un genre saxicole, terricole et muscicole.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon MycoBank                                            (24 janvier 2023)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon MycoBank                                            (24 janvier 2023) :
 Fulgensia arbensis (Zahlbr.) Gyeln., 1933
 Fulgensia australis (Arnold) Poelt, 1965
 Fulgensia bracteata (Hoffm.) Räsänen, 1931
